--- a/ipynb/corporate-finance/datasets/form3.xlsx
+++ b/ipynb/corporate-finance/datasets/form3.xlsx
@@ -112,12 +112,12 @@
     <t>2023-07-03</t>
   </si>
   <si>
+    <t>2023-02-09</t>
+  </si>
+  <si>
     <t>2023-03-27</t>
   </si>
   <si>
-    <t>2023-02-09</t>
-  </si>
-  <si>
     <t>2023-06-13</t>
   </si>
   <si>
@@ -142,39 +142,39 @@
     <t>2023-04-18</t>
   </si>
   <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
     <t>2023-06-05</t>
   </si>
   <si>
-    <t>2023-01-25</t>
-  </si>
-  <si>
     <t>2023-07-05</t>
   </si>
   <si>
+    <t>2023-01-10</t>
+  </si>
+  <si>
     <t>2023-02-14</t>
   </si>
   <si>
+    <t>2023-03-06</t>
+  </si>
+  <si>
+    <t>2023-01-26</t>
+  </si>
+  <si>
+    <t>2023-05-10</t>
+  </si>
+  <si>
+    <t>2023-05-08</t>
+  </si>
+  <si>
     <t>2023-03-20</t>
   </si>
   <si>
-    <t>2023-05-08</t>
-  </si>
-  <si>
-    <t>2023-05-10</t>
-  </si>
-  <si>
-    <t>2023-01-26</t>
-  </si>
-  <si>
-    <t>2023-03-06</t>
-  </si>
-  <si>
     <t>2023-03-28</t>
   </si>
   <si>
-    <t>2023-01-10</t>
-  </si>
-  <si>
     <t>2023-07-10</t>
   </si>
   <si>
@@ -190,12 +190,12 @@
     <t>2023-01-16</t>
   </si>
   <si>
+    <t>2023-03-07</t>
+  </si>
+  <si>
     <t>2023-02-16</t>
   </si>
   <si>
-    <t>2023-03-07</t>
-  </si>
-  <si>
     <t>2023-05-25</t>
   </si>
   <si>
@@ -208,15 +208,15 @@
     <t>2023-02-06</t>
   </si>
   <si>
+    <t>2023-06-27</t>
+  </si>
+  <si>
+    <t>2023-06-19</t>
+  </si>
+  <si>
     <t>2023-06-21</t>
   </si>
   <si>
-    <t>2023-06-19</t>
-  </si>
-  <si>
-    <t>2023-06-27</t>
-  </si>
-  <si>
     <t>2023-02-07</t>
   </si>
   <si>
@@ -226,12 +226,12 @@
     <t>DB금융스팩11호</t>
   </si>
   <si>
+    <t>이노진</t>
+  </si>
+  <si>
     <t>IBKS제22호스팩</t>
   </si>
   <si>
-    <t>이노진</t>
-  </si>
-  <si>
     <t>KB제25호스팩</t>
   </si>
   <si>
@@ -262,39 +262,39 @@
     <t>토마토시스템</t>
   </si>
   <si>
+    <t>삼기이브이</t>
+  </si>
+  <si>
     <t>큐라티스</t>
   </si>
   <si>
-    <t>삼기이브이</t>
-  </si>
-  <si>
     <t>필에너지</t>
   </si>
   <si>
+    <t>한주라이트메탈</t>
+  </si>
+  <si>
     <t>미래에셋비전스팩2호</t>
   </si>
   <si>
+    <t>미래에셋드림스팩1호</t>
+  </si>
+  <si>
+    <t>스튜디오미르</t>
+  </si>
+  <si>
+    <t>모니터랩</t>
+  </si>
+  <si>
+    <t>트루엔</t>
+  </si>
+  <si>
     <t>LB인베스트먼트</t>
   </si>
   <si>
-    <t>트루엔</t>
-  </si>
-  <si>
-    <t>모니터랩</t>
-  </si>
-  <si>
-    <t>스튜디오미르</t>
-  </si>
-  <si>
-    <t>미래에셋드림스팩1호</t>
-  </si>
-  <si>
     <t>미래에셋비전스팩3호</t>
   </si>
   <si>
-    <t>한주라이트메탈</t>
-  </si>
-  <si>
     <t>센서뷰</t>
   </si>
   <si>
@@ -307,18 +307,18 @@
     <t>나라셀라</t>
   </si>
   <si>
+    <t>미래반도체</t>
+  </si>
+  <si>
     <t>시큐센</t>
   </si>
   <si>
-    <t>미래반도체</t>
+    <t>유안타제12호스팩</t>
   </si>
   <si>
     <t>유안타제13호스팩</t>
   </si>
   <si>
-    <t>유안타제12호스팩</t>
-  </si>
-  <si>
     <t>마녀공장</t>
   </si>
   <si>
@@ -334,15 +334,15 @@
     <t>샌즈랩</t>
   </si>
   <si>
+    <t>이노시뮬레이션</t>
+  </si>
+  <si>
+    <t>하나29호스팩</t>
+  </si>
+  <si>
     <t>오픈놀</t>
   </si>
   <si>
-    <t>하나29호스팩</t>
-  </si>
-  <si>
-    <t>이노시뮬레이션</t>
-  </si>
-  <si>
     <t>하나27호스팩</t>
   </si>
   <si>
@@ -358,12 +358,12 @@
     <t>제이오</t>
   </si>
   <si>
+    <t>오브젠</t>
+  </si>
+  <si>
     <t>마이크로투나노</t>
   </si>
   <si>
-    <t>오브젠</t>
-  </si>
-  <si>
     <t>티이엠씨</t>
   </si>
   <si>
@@ -436,30 +436,30 @@
     <t>2023-04-21</t>
   </si>
   <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
     <t>2023-06-09</t>
   </si>
   <si>
-    <t>2023-01-30</t>
+    <t>2023-01-13</t>
   </si>
   <si>
     <t>2023-02-17</t>
   </si>
   <si>
+    <t>2023-03-09</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
     <t>2023-03-23</t>
   </si>
   <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>2023-03-09</t>
-  </si>
-  <si>
     <t>2023-03-31</t>
   </si>
   <si>
-    <t>2023-01-13</t>
-  </si>
-  <si>
     <t>2023-07-13</t>
   </si>
   <si>
@@ -469,12 +469,12 @@
     <t>2023-01-19</t>
   </si>
   <si>
+    <t>2023-03-10</t>
+  </si>
+  <si>
     <t>2023-02-21</t>
   </si>
   <si>
-    <t>2023-03-10</t>
-  </si>
-  <si>
     <t>2023-05-31</t>
   </si>
   <si>
@@ -484,12 +484,12 @@
     <t>2023-02-03</t>
   </si>
   <si>
+    <t>2023-06-30</t>
+  </si>
+  <si>
     <t>2023-06-22</t>
   </si>
   <si>
-    <t>2023-06-30</t>
-  </si>
-  <si>
     <t>2023-02-10</t>
   </si>
   <si>
@@ -499,12 +499,12 @@
     <t>2023-07-12</t>
   </si>
   <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
     <t>2023-04-06</t>
   </si>
   <si>
-    <t>2023-02-20</t>
-  </si>
-  <si>
     <t>2023-04-10</t>
   </si>
   <si>
@@ -523,15 +523,15 @@
     <t>2023-02-24</t>
   </si>
   <si>
+    <t>2023-03-15</t>
+  </si>
+  <si>
+    <t>2023-05-17</t>
+  </si>
+  <si>
     <t>2023-03-29</t>
   </si>
   <si>
-    <t>2023-05-17</t>
-  </si>
-  <si>
-    <t>2023-03-15</t>
-  </si>
-  <si>
     <t>2023-04-07</t>
   </si>
   <si>
@@ -547,10 +547,10 @@
     <t>2023-01-27</t>
   </si>
   <si>
+    <t>2023-03-17</t>
+  </si>
+  <si>
     <t>2023-02-28</t>
-  </si>
-  <si>
-    <t>2023-03-17</t>
   </si>
   <si>
     <t>2023-06-08</t>
@@ -1025,19 +1025,19 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
         <v>161</v>
       </c>
       <c r="H3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="I3">
-        <v>4000000</v>
+        <v>2600000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
         <v>162</v>
       </c>
       <c r="H4">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="I4">
-        <v>2600000</v>
+        <v>4000000</v>
       </c>
       <c r="J4">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>73</v>
@@ -1218,7 +1218,7 @@
         <v>134</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H8">
         <v>6800</v>
@@ -1241,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>73</v>
@@ -1332,7 +1332,7 @@
         <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H11">
         <v>50000</v>
@@ -1370,7 +1370,7 @@
         <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>20000</v>
@@ -1513,31 +1513,31 @@
         <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
         <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H16">
-        <v>9100</v>
+        <v>39072.407</v>
       </c>
       <c r="I16">
-        <v>3500000</v>
+        <v>3552037</v>
       </c>
       <c r="J16">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1551,31 +1551,31 @@
         <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="F17" t="s">
         <v>141</v>
       </c>
       <c r="G17" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="H17">
-        <v>39072.407</v>
+        <v>9100</v>
       </c>
       <c r="I17">
-        <v>3552037</v>
+        <v>3500000</v>
       </c>
       <c r="J17">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1627,31 +1627,31 @@
         <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="F19" t="s">
         <v>142</v>
       </c>
       <c r="G19" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="H19">
-        <v>9300</v>
+        <v>9067.5</v>
       </c>
       <c r="I19">
-        <v>4650000</v>
+        <v>6500000</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>3100</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1674,16 +1674,16 @@
         <v>143</v>
       </c>
       <c r="G20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H20">
-        <v>23552.0397</v>
+        <v>9300</v>
       </c>
       <c r="I20">
-        <v>4618047</v>
+        <v>4650000</v>
       </c>
       <c r="J20">
-        <v>5100</v>
+        <v>2000</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1712,16 +1712,16 @@
         <v>144</v>
       </c>
       <c r="G21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H21">
-        <v>30000</v>
+        <v>70000</v>
       </c>
       <c r="I21">
-        <v>2500000</v>
+        <v>7000000</v>
       </c>
       <c r="J21">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1747,19 +1747,19 @@
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G22" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="H22">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="I22">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="J22">
-        <v>9800</v>
+        <v>19500</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1785,19 +1785,19 @@
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="H23">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="I23">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="J23">
-        <v>19500</v>
+        <v>9800</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1826,16 +1826,16 @@
         <v>145</v>
       </c>
       <c r="G24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H24">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="I24">
-        <v>7000000</v>
+        <v>2500000</v>
       </c>
       <c r="J24">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1864,16 +1864,16 @@
         <v>146</v>
       </c>
       <c r="G25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H25">
-        <v>9000</v>
+        <v>23552.0397</v>
       </c>
       <c r="I25">
-        <v>4500000</v>
+        <v>4618047</v>
       </c>
       <c r="J25">
-        <v>2000</v>
+        <v>5100</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1893,31 +1893,31 @@
         <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>147</v>
       </c>
       <c r="G26" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="H26">
-        <v>9067.5</v>
+        <v>9000</v>
       </c>
       <c r="I26">
-        <v>6500000</v>
+        <v>4500000</v>
       </c>
       <c r="J26">
-        <v>3100</v>
+        <v>2000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2001,37 +2001,37 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="G29" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="H29">
-        <v>41900</v>
+        <v>95385.094</v>
       </c>
       <c r="I29">
-        <v>23780000</v>
+        <v>2218258</v>
       </c>
       <c r="J29">
-        <v>5000</v>
+        <v>43000</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>35.24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2077,37 +2077,37 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="F31" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G31" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="H31">
-        <v>95385.094</v>
+        <v>41900</v>
       </c>
       <c r="I31">
-        <v>2218258</v>
+        <v>23780000</v>
       </c>
       <c r="J31">
-        <v>43000</v>
+        <v>5000</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>100</v>
+        <v>35.24</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2127,7 +2127,7 @@
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G32" t="s">
         <v>38</v>
@@ -2229,10 +2229,10 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
         <v>120</v>
@@ -2241,7 +2241,7 @@
         <v>120</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G35" t="s">
         <v>166</v>
@@ -2267,37 +2267,37 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="F36" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G36" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="H36">
-        <v>5844</v>
+        <v>18000</v>
       </c>
       <c r="I36">
-        <v>1948000</v>
+        <v>1500000</v>
       </c>
       <c r="J36">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2305,37 +2305,37 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G37" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="H37">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="I37">
-        <v>1500000</v>
+        <v>3600000</v>
       </c>
       <c r="J37">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2343,7 +2343,7 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>98</v>
@@ -2355,19 +2355,19 @@
         <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G38" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="H38">
-        <v>21600</v>
+        <v>5844</v>
       </c>
       <c r="I38">
-        <v>3600000</v>
+        <v>1948000</v>
       </c>
       <c r="J38">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2399,10 +2399,10 @@
         <v>177</v>
       </c>
       <c r="H39">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="I39">
-        <v>8500000</v>
+        <v>4500000</v>
       </c>
       <c r="J39">
         <v>2000</v>
@@ -2437,10 +2437,10 @@
         <v>178</v>
       </c>
       <c r="H40">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="I40">
-        <v>4500000</v>
+        <v>8500000</v>
       </c>
       <c r="J40">
         <v>2000</v>
@@ -2533,10 +2533,10 @@
         <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D43" t="s">
         <v>121</v>
@@ -2545,7 +2545,7 @@
         <v>127</v>
       </c>
       <c r="F43" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G43" t="s">
         <v>150</v>
@@ -2609,7 +2609,7 @@
         <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
         <v>103</v>
@@ -2621,7 +2621,7 @@
         <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G45" t="s">
         <v>170</v>
@@ -2662,7 +2662,7 @@
         <v>155</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>10000</v>
@@ -2697,7 +2697,7 @@
         <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>180</v>
@@ -2735,19 +2735,19 @@
         <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="G48" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="H48">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="I48">
-        <v>1650000</v>
+        <v>900000</v>
       </c>
       <c r="J48">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G49" t="s">
         <v>181</v>
@@ -2811,19 +2811,19 @@
         <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="H50">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="I50">
-        <v>900000</v>
+        <v>1650000</v>
       </c>
       <c r="J50">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -2837,37 +2837,37 @@
         <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="E51" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="F51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G51" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="H51">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="I51">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J51">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2875,37 +2875,37 @@
         <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="E52" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="F52" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" t="s">
         <v>131</v>
       </c>
-      <c r="G52" t="s">
-        <v>161</v>
-      </c>
       <c r="H52">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="I52">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="J52">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2928,7 +2928,7 @@
         <v>132</v>
       </c>
       <c r="G53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H53">
         <v>8500</v>
@@ -3027,37 +3027,37 @@
         <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="F56" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G56" t="s">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="H56">
-        <v>27000</v>
+        <v>48000</v>
       </c>
       <c r="I56">
-        <v>3000000</v>
+        <v>23200000</v>
       </c>
       <c r="J56">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>100</v>
+        <v>41.38</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3065,10 +3065,10 @@
         <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
         <v>28</v>
@@ -3077,19 +3077,19 @@
         <v>28</v>
       </c>
       <c r="F57" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G57" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="H57">
-        <v>52000</v>
+        <v>27000</v>
       </c>
       <c r="I57">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="J57">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -3103,37 +3103,37 @@
         <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D58" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="E58" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="F58" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="G58" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="H58">
-        <v>37000</v>
+        <v>52000</v>
       </c>
       <c r="I58">
-        <v>23780000</v>
+        <v>4000000</v>
       </c>
       <c r="J58">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>31.12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3141,37 +3141,37 @@
         <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="E59" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="F59" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="G59" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="H59">
-        <v>15500</v>
+        <v>37000</v>
       </c>
       <c r="I59">
-        <v>1000000</v>
+        <v>23780000</v>
       </c>
       <c r="J59">
-        <v>15500</v>
+        <v>5000</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>100</v>
+        <v>31.12</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3179,37 +3179,37 @@
         <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="D60" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="F60" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="H60">
-        <v>48000</v>
+        <v>13967.208</v>
       </c>
       <c r="I60">
-        <v>23200000</v>
+        <v>775956</v>
       </c>
       <c r="J60">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>41.38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3217,7 +3217,7 @@
         <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
         <v>115</v>
@@ -3229,19 +3229,19 @@
         <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G61" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="H61">
-        <v>13967.208</v>
+        <v>15500</v>
       </c>
       <c r="I61">
-        <v>775956</v>
+        <v>1000000</v>
       </c>
       <c r="J61">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -3255,37 +3255,37 @@
         <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="F62" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G62" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="H62">
-        <v>50400</v>
+        <v>48000</v>
       </c>
       <c r="I62">
-        <v>1800000</v>
+        <v>23200000</v>
       </c>
       <c r="J62">
-        <v>28000</v>
+        <v>5000</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>100</v>
+        <v>41.38</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3293,37 +3293,37 @@
         <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="D63" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="H63">
-        <v>48000</v>
+        <v>50400</v>
       </c>
       <c r="I63">
-        <v>23200000</v>
+        <v>1800000</v>
       </c>
       <c r="J63">
-        <v>5000</v>
+        <v>28000</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>41.38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3331,10 +3331,10 @@
         <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D64" t="s">
         <v>121</v>
@@ -3343,7 +3343,7 @@
         <v>127</v>
       </c>
       <c r="F64" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G64" t="s">
         <v>150</v>
